--- a/adatok/osszesadat.xlsx
+++ b/adatok/osszesadat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adatkezeles\Adatkezeles\adatok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vegleges\Projekt\adatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D35109-AAC5-4F37-86F8-D1EE30D1FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83985D7A-B258-471A-AB35-D88098C9D579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profil" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -329,6 +329,93 @@
   </si>
   <si>
     <t>Orosz Rudolf</t>
+  </si>
+  <si>
+    <t>Ármós Szabolcs</t>
+  </si>
+  <si>
+    <t>Sankó Balász</t>
+  </si>
+  <si>
+    <t>Bartha András</t>
+  </si>
+  <si>
+    <t>kapus/csapat kapitány</t>
+  </si>
+  <si>
+    <t>Almási Ádám</t>
+  </si>
+  <si>
+    <t>Magyar Ákos</t>
+  </si>
+  <si>
+    <t>Simon István</t>
+  </si>
+  <si>
+    <t>Kovács Milán</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Balku Ádám</t>
+  </si>
+  <si>
+    <t>Csontos Zsombor</t>
+  </si>
+  <si>
+    <t>Stonawski Benjamin</t>
+  </si>
+  <si>
+    <t>Méhes Imre</t>
+  </si>
+  <si>
+    <t>Csokai Balázs</t>
+  </si>
+  <si>
+    <t>Molnár Dávid</t>
+  </si>
+  <si>
+    <t>Tóth Benjamin</t>
+  </si>
+  <si>
+    <t>Balla Zsolt</t>
+  </si>
+  <si>
+    <t>Veress Balázs</t>
+  </si>
+  <si>
+    <t>Brobély Attila</t>
+  </si>
+  <si>
+    <t>Papp Ferenc</t>
+  </si>
+  <si>
+    <t>Szabó Dániel</t>
+  </si>
+  <si>
+    <t>Márton János</t>
+  </si>
+  <si>
+    <t>Virágh Patrik</t>
+  </si>
+  <si>
+    <t>Varga Levente</t>
+  </si>
+  <si>
+    <t>Bajnok Baráth</t>
+  </si>
+  <si>
+    <t>Kutus Bence</t>
+  </si>
+  <si>
+    <t>Kelemen Zsombor</t>
+  </si>
+  <si>
+    <t>Vovcsok Sándor</t>
+  </si>
+  <si>
+    <t>Kalucza Bendegúz</t>
   </si>
 </sst>
 </file>
@@ -726,7 +813,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -819,7 +906,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57028DC-EA9E-4D49-BEDC-B7E4166F43F6}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1451,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="A1:H25"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,13 +2012,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F32D45-E6A1-47CA-B8E2-B6E777DD6D55}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1961,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1973,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,22 +2078,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2007,19 +2101,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2030,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2042,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2053,19 +2147,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2076,10 +2170,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2088,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2099,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2111,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2122,10 +2216,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2134,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2145,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2157,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2180,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2191,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2203,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2214,10 +2308,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2226,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2249,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2260,10 +2354,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2272,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2283,10 +2377,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2295,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,10 +2400,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2318,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2329,10 +2423,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2341,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2352,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2364,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2387,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2398,10 +2492,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2410,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2421,22 +2515,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,10 +2538,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2456,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,10 +2561,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2479,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,7 +2584,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2502,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,10 +2607,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2525,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2536,19 +2630,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2559,7 +2653,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2571,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -2582,7 +2676,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2594,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -2605,22 +2699,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,19 +2722,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -2651,10 +2745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2663,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2686,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -2697,10 +2791,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2709,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -2720,7 +2814,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2732,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,10 +2837,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2755,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,19 +2860,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -2789,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2801,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -2812,7 +2906,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2824,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,10 +2929,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2847,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2870,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2881,19 +2975,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -2904,7 +2998,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2916,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,10 +3021,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2939,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2950,10 +3044,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2962,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,10 +3067,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2985,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -2996,10 +3090,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3008,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -3019,10 +3113,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3031,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -3042,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3054,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -3065,10 +3159,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3077,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3088,10 +3182,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3100,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,7 +3205,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3123,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,7 +3228,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3146,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -3157,10 +3251,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3169,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -3180,10 +3274,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3192,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -3203,7 +3297,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3215,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -3226,7 +3320,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3238,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -3249,7 +3343,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3261,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -3272,7 +3366,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3284,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -3295,22 +3389,22 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3318,10 +3412,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3330,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,10 +3435,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3353,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -3364,7 +3458,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3376,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -3387,10 +3481,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3399,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -3410,19 +3504,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -3433,10 +3527,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3445,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -3456,7 +3550,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3468,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G67" t="s">
         <v>45</v>
@@ -3479,19 +3573,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -3502,19 +3596,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -3525,10 +3619,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3537,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,7 +3642,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3560,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,10 +3665,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3583,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
         <v>45</v>
@@ -3594,10 +3688,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3606,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,7 +3711,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3629,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -3640,7 +3734,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3652,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -3663,10 +3757,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3675,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s">
         <v>45</v>
@@ -3686,10 +3780,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3698,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,10 +3803,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3721,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s">
         <v>45</v>
@@ -3732,10 +3826,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3744,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s">
         <v>45</v>
@@ -3755,10 +3849,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3767,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s">
         <v>45</v>
@@ -3778,10 +3872,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3790,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3813,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,10 +3918,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3836,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,10 +3941,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3859,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s">
         <v>45</v>
@@ -3870,10 +3964,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3882,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -3893,10 +3987,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3905,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
         <v>45</v>
@@ -3916,7 +4010,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3928,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
         <v>45</v>
@@ -3939,10 +4033,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3951,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,7 +4056,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3974,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,7 +4079,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3997,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4008,7 +4102,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4020,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -4031,7 +4125,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4043,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4054,7 +4148,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4066,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4077,7 +4171,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4089,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4100,7 +4194,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4112,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -4123,7 +4217,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4135,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>45</v>
@@ -4146,7 +4240,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4158,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s">
         <v>45</v>
@@ -4169,7 +4263,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4181,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -4192,21 +4286,895 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>60</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>65</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>66</v>
+      </c>
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>69</v>
+      </c>
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>76</v>
+      </c>
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
         <v>11</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>81</v>
+      </c>
+      <c r="G128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>83</v>
+      </c>
+      <c r="G130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G132" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>86</v>
+      </c>
+      <c r="G133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>87</v>
+      </c>
+      <c r="G134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+      <c r="G136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
         <v>90</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G137" t="s">
         <v>45</v>
       </c>
     </row>
